--- a/burndown_chart.xlsx
+++ b/burndown_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dedc037cbf120ca0/Skole/Informatik/eksamen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mie\IT-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D1D646341095ACB70007EA512E6C0683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19478CB3-D07D-45A2-A78C-0FBE537CCA04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E07A5-A211-4CEE-8788-DF51C6BAA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,23 +267,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$C$12:$C$16</c:f>
+              <c:f>'Ark1'!$C$12:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,24 +294,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$D$12:$D$16</c:f>
+              <c:f>'Ark1'!$D$12:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,23 +366,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$C$12:$C$16</c:f>
+              <c:f>'Ark1'!$C$12:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -384,23 +393,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$E$12:$E$16</c:f>
+              <c:f>'Ark1'!$E$12:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -428,7 +440,7 @@
         <c:axId val="1097939263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1602,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,72 +1731,84 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
-        <v>45049</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
-        <v>45055</v>
+        <v>45049</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="E13" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="E14" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
-        <v>45068</v>
+        <v>45056</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
+        <v>45068</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
         <v>45069</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
     </row>
